--- a/project/프로젝트정보_작성해서제출하세요.xlsx
+++ b/project/프로젝트정보_작성해서제출하세요.xlsx
@@ -385,13 +385,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,14 +403,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,298 +710,311 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>44574</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:I27"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:I14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:I20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:I23"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
@@ -1014,19 +1027,6 @@
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:I27"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:I14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:I20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:I23"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,298 +1052,305 @@
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>44412</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:I26"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:I19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:I22"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:I13"/>
     <mergeCell ref="C3:I3"/>
@@ -1360,13 +1367,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:I19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:I22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
